--- a/Formulario2/Costos.xlsx
+++ b/Formulario2/Costos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo\Desktop\Proyecto_Final\Formulario2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo\Desktop\Digitales\PF\Proyecto_Final\Formulario2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9D96A-3135-4A0D-B6D9-DD5F08ADF9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D166497-2E66-4A2A-9A2A-8F95BC846CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D4271C89-11CD-42D2-BBB4-2D5A761AF937}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{D4271C89-11CD-42D2-BBB4-2D5A761AF937}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Costo</t>
   </si>
@@ -86,9 +87,6 @@
     <t>https://es.aliexpress.com/item/4001156720418.html</t>
   </si>
   <si>
-    <t>Adhesivo de secado rapido, indupeg</t>
-  </si>
-  <si>
     <t>Componentes</t>
   </si>
   <si>
@@ -113,9 +111,6 @@
     <t xml:space="preserve">Corte de piezas para la estructura del avion. </t>
   </si>
   <si>
-    <t>Broca de taladro</t>
-  </si>
-  <si>
     <t>Modulo RF Lora 915 Mhz SX1276-P01</t>
   </si>
   <si>
@@ -129,16 +124,50 @@
   </si>
   <si>
     <t>Sensor Ultrasonido (SR04M-2)</t>
+  </si>
+  <si>
+    <t>Silicona</t>
+  </si>
+  <si>
+    <t>Componentes, herramientas y equipos</t>
+  </si>
+  <si>
+    <t>Motor sin escobillas 30A y Controlador con Hélice.</t>
+  </si>
+  <si>
+    <t>Bateria lipo 3S 11.1V 1000m/A</t>
+  </si>
+  <si>
+    <t>Tren de aterrizaje</t>
+  </si>
+  <si>
+    <t>Pistola de silicona</t>
+  </si>
+  <si>
+    <t>Control de velocidad brushless 30A x 3</t>
+  </si>
+  <si>
+    <t>Barra de silicona x10</t>
+  </si>
+  <si>
+    <t>Bisturí precisión</t>
+  </si>
+  <si>
+    <t>Sensor IMU</t>
+  </si>
+  <si>
+    <t>Juego de claxon y Clevis de Control de nailon, Servo de timón, elevadores de ailerones para avión de ala fija RC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +191,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,6 +302,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,21 +313,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -614,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0164E9E9-EB4C-4FD4-BF0B-2EFE2A240FA5}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,16 +690,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
@@ -656,16 +717,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="10"/>
       <c r="J2" s="9">
         <v>2</v>
@@ -679,7 +740,7 @@
       </c>
       <c r="N2" s="4">
         <f>SUM(L2:L16)+SUM(I22:I31)+SUM(I37:I48)</f>
-        <v>710</v>
+        <v>720.5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -707,7 +768,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -730,7 +791,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -755,16 +816,16 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9">
         <v>1</v>
@@ -776,21 +837,21 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="10"/>
       <c r="J7" s="9">
         <v>1</v>
@@ -807,14 +868,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="14" t="s">
         <v>11</v>
       </c>
@@ -830,14 +891,14 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="13" t="s">
         <v>13</v>
       </c>
@@ -853,14 +914,14 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="13" t="s">
         <v>14</v>
       </c>
@@ -876,14 +937,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="12" t="s">
         <v>15</v>
       </c>
@@ -900,16 +961,16 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="A12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="10"/>
       <c r="J12" s="9">
         <v>2</v>
@@ -923,18 +984,18 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="24" t="s">
-        <v>27</v>
+      <c r="A13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="J13" s="9">
         <v>2</v>
@@ -948,41 +1009,41 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="A14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="10"/>
       <c r="J14" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" s="11">
         <v>10.5</v>
       </c>
       <c r="L14" s="11">
         <f>PRODUCT(J14:K14)</f>
-        <v>42</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="24" t="s">
-        <v>29</v>
+      <c r="A15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="J15" s="9">
         <v>1</v>
@@ -996,16 +1057,16 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="A16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="10"/>
       <c r="J16" s="9">
         <v>1</v>
@@ -1067,366 +1128,399 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="11">
         <v>5</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="11">
+        <v>5</v>
+      </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="11">
         <v>10</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="11">
+        <v>10</v>
+      </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="11">
         <v>0</v>
       </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="11">
         <v>0</v>
       </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="11">
         <v>0</v>
       </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="11">
         <v>0</v>
       </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="11">
         <v>0</v>
       </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="11">
         <v>0</v>
       </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="11">
         <v>0</v>
       </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="11">
         <v>0</v>
       </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="11">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -1438,24 +1532,19 @@
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1" xr:uid="{AE89568D-8672-431B-B53C-DFFFB9CBD93A}"/>
@@ -1467,4 +1556,236 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893BC748-752E-4540-9F0E-878749392566}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="0.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="26">
+        <f>SUM(I2:I12)</f>
+        <v>518000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>